--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2552.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2552.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.17925894648156</v>
+        <v>1.971817374229431</v>
       </c>
       <c r="B1">
-        <v>1.887379547564481</v>
+        <v>1.999925494194031</v>
       </c>
       <c r="C1">
-        <v>4.007349866327381</v>
+        <v>8.136432647705078</v>
       </c>
       <c r="D1">
-        <v>1.754256652136867</v>
+        <v>0.9491493701934814</v>
       </c>
       <c r="E1">
-        <v>0.8865523832526927</v>
+        <v>0.4557609558105469</v>
       </c>
     </row>
   </sheetData>
